--- a/CodeSystem-product-size.xlsx
+++ b/CodeSystem-product-size.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-11T19:14:51+00:00</t>
+    <t>2022-10-11T19:24:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-product-size.xlsx
+++ b/CodeSystem-product-size.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-11T19:24:53+00:00</t>
+    <t>2022-10-11T19:49:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-product-size.xlsx
+++ b/CodeSystem-product-size.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-11T19:49:39+00:00</t>
+    <t>2022-10-11T20:29:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-product-size.xlsx
+++ b/CodeSystem-product-size.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-11T20:29:55+00:00</t>
+    <t>2022-10-11T20:30:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-product-size.xlsx
+++ b/CodeSystem-product-size.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-11T20:30:27+00:00</t>
+    <t>2022-10-11T20:54:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-product-size.xlsx
+++ b/CodeSystem-product-size.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-11T20:54:56+00:00</t>
+    <t>2022-10-11T21:18:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-product-size.xlsx
+++ b/CodeSystem-product-size.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-11T21:18:11+00:00</t>
+    <t>2022-10-12T05:39:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-product-size.xlsx
+++ b/CodeSystem-product-size.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-12T05:39:48+00:00</t>
+    <t>2022-10-12T21:14:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-product-size.xlsx
+++ b/CodeSystem-product-size.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-12T21:14:46+00:00</t>
+    <t>2022-10-12T22:24:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-product-size.xlsx
+++ b/CodeSystem-product-size.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-12T22:24:11+00:00</t>
+    <t>2022-10-12T22:24:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-product-size.xlsx
+++ b/CodeSystem-product-size.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-12T22:24:43+00:00</t>
+    <t>2022-10-12T22:29:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
